--- a/raw_data/social_immigrants/english_by_country.xlsx
+++ b/raw_data/social_immigrants/english_by_country.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Mengxit/Dropbox/MDE/Fall 2019/Data Gov1005/Projects/final_project/US-Immigration-Explorer/raw_data/english_speaking_immigrants/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Mengxit/Dropbox/MDE/Fall 2019/Data Gov1005/Projects/final_project/US-Immigration-Explorer/raw_data/social_immigrants/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADD02455-E0B8-5842-8FF9-E779A3E912E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD4016E5-C5A9-FC4F-9AC9-44FD37633042}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11340" yWindow="460" windowWidth="28040" windowHeight="16580" activeTab="2" xr2:uid="{E1D85367-B32D-DD4C-A733-E63E38B3C688}"/>
+    <workbookView xWindow="6340" yWindow="720" windowWidth="28040" windowHeight="16580" activeTab="2" xr2:uid="{E1D85367-B32D-DD4C-A733-E63E38B3C688}"/>
   </bookViews>
   <sheets>
     <sheet name="English Speakling Capability" sheetId="2" r:id="rId1"/>
@@ -106,7 +106,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -203,7 +203,7 @@
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3111,7 +3111,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B4"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/raw_data/social_immigrants/english_by_country.xlsx
+++ b/raw_data/social_immigrants/english_by_country.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Mengxit/Dropbox/MDE/Fall 2019/Data Gov1005/Projects/final_project/US-Immigration-Explorer/raw_data/social_immigrants/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Mengxi/Dropbox/MDE/Fall 2019/Data Gov1005/Projects/final_project/US-Immigration-Explorer/raw_data/social_immigrants/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD4016E5-C5A9-FC4F-9AC9-44FD37633042}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E746380-A08E-544D-ADAC-93233883AF37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6340" yWindow="720" windowWidth="28040" windowHeight="16580" activeTab="2" xr2:uid="{E1D85367-B32D-DD4C-A733-E63E38B3C688}"/>
+    <workbookView xWindow="22420" yWindow="2020" windowWidth="28040" windowHeight="16580" xr2:uid="{E1D85367-B32D-DD4C-A733-E63E38B3C688}"/>
   </bookViews>
   <sheets>
     <sheet name="English Speakling Capability" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="23">
   <si>
     <t>Year</t>
   </si>
@@ -99,6 +99,9 @@
   </si>
   <si>
     <t>Not in Labor Force Ratio</t>
+  </si>
+  <si>
+    <t>Jamaica</t>
   </si>
 </sst>
 </file>
@@ -519,10 +522,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A10AE8D3-DFEA-3245-AE4A-E556B82D1BD4}">
-  <dimension ref="A1:F111"/>
+  <dimension ref="A1:F122"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A101" sqref="A101"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="C128" sqref="C128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2973,6 +2976,248 @@
       </c>
       <c r="F111" s="7" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A112" s="11">
+        <v>741609</v>
+      </c>
+      <c r="B112" s="12">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="C112" s="2">
+        <f t="shared" ref="C112:C122" si="6">100%-B112</f>
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="D112">
+        <f t="shared" ref="D112:D122" si="7">A112*C112</f>
+        <v>726035.21100000001</v>
+      </c>
+      <c r="E112">
+        <v>2017</v>
+      </c>
+      <c r="F112" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A113" s="11">
+        <v>734087</v>
+      </c>
+      <c r="B113" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="C113" s="2">
+        <f t="shared" si="6"/>
+        <v>0.98</v>
+      </c>
+      <c r="D113">
+        <f t="shared" si="7"/>
+        <v>719405.26</v>
+      </c>
+      <c r="E113">
+        <v>2016</v>
+      </c>
+      <c r="F113" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A114" s="11">
+        <v>708435</v>
+      </c>
+      <c r="B114" s="12">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C114" s="2">
+        <f t="shared" si="6"/>
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="D114">
+        <f t="shared" si="7"/>
+        <v>697808.47499999998</v>
+      </c>
+      <c r="E114">
+        <v>2015</v>
+      </c>
+      <c r="F114" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A115" s="1">
+        <v>703584</v>
+      </c>
+      <c r="B115" s="12">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C115" s="2">
+        <f t="shared" si="6"/>
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="D115">
+        <f t="shared" si="7"/>
+        <v>693030.24</v>
+      </c>
+      <c r="E115">
+        <v>2014</v>
+      </c>
+      <c r="F115" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A116" s="11">
+        <v>713634</v>
+      </c>
+      <c r="B116" s="12">
+        <v>1.9E-2</v>
+      </c>
+      <c r="C116" s="2">
+        <f t="shared" si="6"/>
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="D116">
+        <f t="shared" si="7"/>
+        <v>700074.95400000003</v>
+      </c>
+      <c r="E116">
+        <v>2013</v>
+      </c>
+      <c r="F116" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A117" s="11">
+        <v>678241</v>
+      </c>
+      <c r="B117" s="12">
+        <v>1.6E-2</v>
+      </c>
+      <c r="C117" s="2">
+        <f t="shared" si="6"/>
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="D117">
+        <f t="shared" si="7"/>
+        <v>667389.14399999997</v>
+      </c>
+      <c r="E117">
+        <v>2012</v>
+      </c>
+      <c r="F117" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A118" s="11">
+        <v>695229</v>
+      </c>
+      <c r="B118" s="12">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="C118" s="2">
+        <f t="shared" si="6"/>
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="D118">
+        <f t="shared" si="7"/>
+        <v>683410.10699999996</v>
+      </c>
+      <c r="E118">
+        <v>2011</v>
+      </c>
+      <c r="F118" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A119" s="1">
+        <v>657613</v>
+      </c>
+      <c r="B119" s="12">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="C119" s="2">
+        <f t="shared" si="6"/>
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="D119">
+        <f t="shared" si="7"/>
+        <v>646433.57900000003</v>
+      </c>
+      <c r="E119">
+        <v>2010</v>
+      </c>
+      <c r="F119" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A120" s="1">
+        <v>649782</v>
+      </c>
+      <c r="B120" s="12">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="C120" s="2">
+        <f t="shared" si="6"/>
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="D120">
+        <f t="shared" si="7"/>
+        <v>638735.70600000001</v>
+      </c>
+      <c r="E120">
+        <v>2009</v>
+      </c>
+      <c r="F120" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A121" s="11">
+        <v>635170</v>
+      </c>
+      <c r="B121" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="C121" s="2">
+        <f t="shared" si="6"/>
+        <v>0.98</v>
+      </c>
+      <c r="D121">
+        <f t="shared" si="7"/>
+        <v>622466.6</v>
+      </c>
+      <c r="E121">
+        <v>2008</v>
+      </c>
+      <c r="F121" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A122" s="1">
+        <v>595317</v>
+      </c>
+      <c r="B122" s="12">
+        <v>1.6E-2</v>
+      </c>
+      <c r="C122" s="2">
+        <f t="shared" si="6"/>
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="D122">
+        <f t="shared" si="7"/>
+        <v>585791.92799999996</v>
+      </c>
+      <c r="E122">
+        <v>2007</v>
+      </c>
+      <c r="F122" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -3110,7 +3355,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{237FDB4F-CF56-4443-855E-8AE53E61765E}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>

--- a/raw_data/social_immigrants/english_by_country.xlsx
+++ b/raw_data/social_immigrants/english_by_country.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Mengxi/Dropbox/MDE/Fall 2019/Data Gov1005/Projects/final_project/US-Immigration-Explorer/raw_data/social_immigrants/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E746380-A08E-544D-ADAC-93233883AF37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD6D975F-B072-D84B-A474-BE7B86CEEF7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22420" yWindow="2020" windowWidth="28040" windowHeight="16580" xr2:uid="{E1D85367-B32D-DD4C-A733-E63E38B3C688}"/>
+    <workbookView xWindow="22420" yWindow="2020" windowWidth="28040" windowHeight="16580" activeTab="2" xr2:uid="{E1D85367-B32D-DD4C-A733-E63E38B3C688}"/>
   </bookViews>
   <sheets>
     <sheet name="English Speakling Capability" sheetId="2" r:id="rId1"/>
@@ -181,7 +181,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -207,6 +207,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -524,7 +525,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A10AE8D3-DFEA-3245-AE4A-E556B82D1BD4}">
   <dimension ref="A1:F122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+    <sheetView topLeftCell="A103" workbookViewId="0">
       <selection activeCell="C128" sqref="C128"/>
     </sheetView>
   </sheetViews>
@@ -3353,10 +3354,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{237FDB4F-CF56-4443-855E-8AE53E61765E}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3365,7 +3366,7 @@
     <col min="2" max="2" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -3373,7 +3374,7 @@
         <v>3075211124</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>19</v>
       </c>
@@ -3381,21 +3382,29 @@
         <v>0.91659999999999997</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="24">
         <v>3.6999999999999998E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3" s="25">
+        <f>1-B3</f>
+        <v>0.96299999999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="12">
         <f>1-63.4%</f>
         <v>0.36599999999999999</v>
+      </c>
+      <c r="C4" s="25">
+        <f>1-B4</f>
+        <v>0.63400000000000001</v>
       </c>
     </row>
   </sheetData>
